--- a/teaching/traditional_assets/database/data/spain/spain_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_insurance_general.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.03400500000000001</v>
+        <v>0.0207</v>
       </c>
       <c r="E2">
-        <v>-0.0003499999999999961</v>
+        <v>-0.0005999999999999964</v>
       </c>
       <c r="F2">
-        <v>0.1015</v>
+        <v>0.0665</v>
       </c>
       <c r="G2">
-        <v>0.09151859223092451</v>
+        <v>0.09108869671915629</v>
       </c>
       <c r="H2">
-        <v>0.09151859223092451</v>
+        <v>0.09108869671915629</v>
       </c>
       <c r="I2">
-        <v>0.07770537372717574</v>
+        <v>0.07494531258736331</v>
       </c>
       <c r="J2">
-        <v>0.05554295827032274</v>
+        <v>0.0577455438301705</v>
       </c>
       <c r="K2">
-        <v>920.4000000000001</v>
+        <v>1070.6</v>
       </c>
       <c r="L2">
-        <v>0.03294626365601867</v>
+        <v>0.03909696456221333</v>
       </c>
       <c r="M2">
-        <v>482.3266</v>
+        <v>614.6110000000001</v>
       </c>
       <c r="N2">
-        <v>0.03951456215233117</v>
+        <v>0.06056474182104849</v>
       </c>
       <c r="O2">
-        <v>0.5240401999130812</v>
+        <v>0.5740808892209978</v>
       </c>
       <c r="P2">
-        <v>482.3266</v>
+        <v>610.0810000000001</v>
       </c>
       <c r="Q2">
-        <v>0.03951456215233117</v>
+        <v>0.06011834844304298</v>
       </c>
       <c r="R2">
-        <v>0.5240401999130812</v>
+        <v>0.5698496170371756</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.530000000000001</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.007370515659498447</v>
       </c>
       <c r="U2">
-        <v>4448.5</v>
+        <v>4760.9</v>
       </c>
       <c r="V2">
-        <v>0.3644429515905721</v>
+        <v>0.4691466298778084</v>
       </c>
       <c r="W2">
-        <v>0.08756298696061331</v>
+        <v>0.08552891756269879</v>
       </c>
       <c r="X2">
-        <v>0.06214362184160136</v>
+        <v>0.06176853825336105</v>
       </c>
       <c r="Y2">
-        <v>0.02541936511901195</v>
+        <v>0.02376037930933774</v>
       </c>
       <c r="Z2">
-        <v>2.809977776429267</v>
+        <v>2.714301799749581</v>
       </c>
       <c r="AA2">
-        <v>0.1598413595430094</v>
+        <v>0.1909303960774392</v>
       </c>
       <c r="AB2">
-        <v>0.05599307025330243</v>
+        <v>0.0519107813444111</v>
       </c>
       <c r="AC2">
-        <v>0.103848289289707</v>
+        <v>0.139019614733028</v>
       </c>
       <c r="AD2">
-        <v>3466.3</v>
+        <v>3840.2</v>
       </c>
       <c r="AE2">
-        <v>282.9579870406373</v>
+        <v>294.2875817885643</v>
       </c>
       <c r="AF2">
-        <v>3749.257987040637</v>
+        <v>4134.487581788564</v>
       </c>
       <c r="AG2">
-        <v>-699.2420129593629</v>
+        <v>-626.4124182114356</v>
       </c>
       <c r="AH2">
-        <v>0.2349813143536469</v>
+        <v>0.2894795152533794</v>
       </c>
       <c r="AI2">
-        <v>0.1962042090198387</v>
+        <v>0.211125419549952</v>
       </c>
       <c r="AJ2">
-        <v>-0.06076635867715764</v>
+        <v>-0.06578865266224525</v>
       </c>
       <c r="AK2">
-        <v>-0.04769578232668242</v>
+        <v>-0.04226180614399212</v>
       </c>
       <c r="AL2">
-        <v>82.8</v>
+        <v>100.6</v>
       </c>
       <c r="AM2">
-        <v>82.8</v>
+        <v>100.6</v>
       </c>
       <c r="AN2">
-        <v>1.47138976143985</v>
+        <v>1.6294819026605</v>
       </c>
       <c r="AO2">
-        <v>26.16545893719807</v>
+        <v>20.3648111332008</v>
       </c>
       <c r="AP2">
-        <v>-0.2968172225822917</v>
+        <v>-0.2658006611836193</v>
       </c>
       <c r="AQ2">
-        <v>26.16545893719807</v>
+        <v>20.3648111332008</v>
       </c>
     </row>
     <row r="3">
@@ -728,103 +728,103 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06570000000000001</v>
+        <v>0.0621</v>
       </c>
       <c r="E3">
-        <v>0.09820000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
+        <v>0.0469</v>
       </c>
       <c r="G3">
-        <v>0.1458049886621315</v>
+        <v>0.1481522144880437</v>
       </c>
       <c r="H3">
-        <v>0.1458049886621315</v>
+        <v>0.1481522144880437</v>
       </c>
       <c r="I3">
-        <v>0.121609977324263</v>
+        <v>0.1162249401638084</v>
       </c>
       <c r="J3">
-        <v>0.09263204542558505</v>
+        <v>0.08841801773210803</v>
       </c>
       <c r="K3">
-        <v>415.6</v>
+        <v>369.9</v>
       </c>
       <c r="L3">
-        <v>0.09424036281179139</v>
+        <v>0.08122351287850507</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>96.23</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02287867620836404</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2601513922681806</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>91.7</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02180166900454102</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.2479048391457151</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>4.530000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.04707471682427519</v>
       </c>
       <c r="U3">
-        <v>1483.2</v>
+        <v>1635</v>
       </c>
       <c r="V3">
-        <v>0.3598602484472049</v>
+        <v>0.3887211431016856</v>
       </c>
       <c r="W3">
-        <v>0.122570560651193</v>
+        <v>0.09952644890491309</v>
       </c>
       <c r="X3">
-        <v>0.05692370283141365</v>
+        <v>0.05238534091293877</v>
       </c>
       <c r="Y3">
-        <v>0.06564685781977933</v>
+        <v>0.04714110799197432</v>
       </c>
       <c r="Z3">
-        <v>1.90628512146624</v>
+        <v>2.721790580922783</v>
       </c>
       <c r="AA3">
-        <v>0.1765830899657777</v>
+        <v>0.2406553278471152</v>
       </c>
       <c r="AB3">
-        <v>0.0556262380092414</v>
+        <v>0.05098925142216552</v>
       </c>
       <c r="AC3">
-        <v>0.1209568519565362</v>
+        <v>0.1896660764249497</v>
       </c>
       <c r="AD3">
-        <v>218.6</v>
+        <v>225.8</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>218.6</v>
+        <v>225.8</v>
       </c>
       <c r="AG3">
-        <v>-1264.6</v>
+        <v>-1409.2</v>
       </c>
       <c r="AH3">
-        <v>0.05036634256485875</v>
+        <v>0.05094880299645749</v>
       </c>
       <c r="AI3">
-        <v>0.05035010134512621</v>
+        <v>0.05114962056858081</v>
       </c>
       <c r="AJ3">
-        <v>-0.4426321316065804</v>
+        <v>-0.5038435410633201</v>
       </c>
       <c r="AK3">
-        <v>-0.4424153372516094</v>
+        <v>-0.5069976614499011</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.3831726555652936</v>
+        <v>0.3930374238468233</v>
       </c>
       <c r="AP3">
-        <v>-2.216652059596845</v>
+        <v>-2.452915578764143</v>
       </c>
     </row>
     <row r="4">
@@ -856,49 +856,49 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00231</v>
+        <v>-0.0207</v>
       </c>
       <c r="E4">
-        <v>-0.0989</v>
+        <v>-0.0481</v>
       </c>
       <c r="F4">
-        <v>0.123</v>
+        <v>0.0665</v>
       </c>
       <c r="G4">
-        <v>0.08134266186071817</v>
+        <v>0.07970528842573733</v>
       </c>
       <c r="H4">
-        <v>0.08134266186071817</v>
+        <v>0.07970528842573733</v>
       </c>
       <c r="I4">
-        <v>0.06947549997415128</v>
+        <v>0.06671057920120756</v>
       </c>
       <c r="J4">
-        <v>0.04640019334470455</v>
+        <v>0.05205131127682683</v>
       </c>
       <c r="K4">
-        <v>504.8</v>
+        <v>700.7</v>
       </c>
       <c r="L4">
-        <v>0.02145674646354733</v>
+        <v>0.03069328182013308</v>
       </c>
       <c r="M4">
-        <v>482.3266</v>
+        <v>518.3810000000001</v>
       </c>
       <c r="N4">
-        <v>0.059659183395797</v>
+        <v>0.08724162304986623</v>
       </c>
       <c r="O4">
-        <v>0.9554805863708399</v>
+        <v>0.7398044812330528</v>
       </c>
       <c r="P4">
-        <v>482.3266</v>
+        <v>518.3810000000001</v>
       </c>
       <c r="Q4">
-        <v>0.059659183395797</v>
+        <v>0.08724162304986623</v>
       </c>
       <c r="R4">
-        <v>0.9554805863708399</v>
+        <v>0.7398044812330528</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2965.3</v>
+        <v>3125.9</v>
       </c>
       <c r="V4">
-        <v>0.3667792249557807</v>
+        <v>0.5260775172924486</v>
       </c>
       <c r="W4">
-        <v>0.05255541327003363</v>
+        <v>0.07153138622048449</v>
       </c>
       <c r="X4">
-        <v>0.06736354085178907</v>
+        <v>0.07115173559378332</v>
       </c>
       <c r="Y4">
-        <v>-0.01480812758175544</v>
+        <v>0.0003796506267011723</v>
       </c>
       <c r="Z4">
-        <v>3.084030880155213</v>
+        <v>2.712812815738372</v>
       </c>
       <c r="AA4">
-        <v>0.1430996291202412</v>
+        <v>0.1412054643077631</v>
       </c>
       <c r="AB4">
-        <v>0.05635990249736345</v>
+        <v>0.05283231126665668</v>
       </c>
       <c r="AC4">
-        <v>0.08673972662287777</v>
+        <v>0.08837315304110638</v>
       </c>
       <c r="AD4">
-        <v>3247.7</v>
+        <v>3614.4</v>
       </c>
       <c r="AE4">
-        <v>282.9579870406373</v>
+        <v>294.2875817885643</v>
       </c>
       <c r="AF4">
-        <v>3530.657987040637</v>
+        <v>3908.687581788564</v>
       </c>
       <c r="AG4">
-        <v>565.357987040637</v>
+        <v>782.7875817885642</v>
       </c>
       <c r="AH4">
-        <v>0.3039646294999969</v>
+        <v>0.3967974041482373</v>
       </c>
       <c r="AI4">
-        <v>0.2390852845945111</v>
+        <v>0.257683028212946</v>
       </c>
       <c r="AJ4">
-        <v>0.0653588667136852</v>
+        <v>0.1164050481554663</v>
       </c>
       <c r="AK4">
-        <v>0.04790333920248771</v>
+        <v>0.06500107027374248</v>
       </c>
       <c r="AL4">
-        <v>82.8</v>
+        <v>100.6</v>
       </c>
       <c r="AM4">
-        <v>82.8</v>
+        <v>100.6</v>
       </c>
       <c r="AN4">
-        <v>1.81913403909707</v>
+        <v>2.028055212658512</v>
       </c>
       <c r="AO4">
-        <v>19.68840579710145</v>
+        <v>15.10337972166998</v>
       </c>
       <c r="AP4">
-        <v>0.3166739410970912</v>
+        <v>0.4392254414704097</v>
       </c>
       <c r="AQ4">
-        <v>19.68840579710145</v>
+        <v>15.10337972166998</v>
       </c>
     </row>
   </sheetData>
